--- a/src/test/resources/bixidata/bixitestdata.xlsx
+++ b/src/test/resources/bixidata/bixitestdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipseUpdatedWorkspace\SDET-52\src\test\resources\bixidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5B12F-A468-4E25-B038-EF979AC78F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00781B2C-1B3B-48E6-AC0E-EF224011FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>neyaz</t>
   </si>
@@ -202,12 +202,28 @@
   </si>
   <si>
     <t>08071990</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>Manju@1234</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011243 </t>
+  </si>
+  <si>
+    <t>Neyaz@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,8 +610,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,18 +728,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C7B5E6-C531-45D2-9E1C-1477416FD268}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -736,36 +754,24 @@
       <c r="F1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -779,7 +785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -793,7 +799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -801,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -809,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -817,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -825,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -833,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -841,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -867,8 +873,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -961,8 +967,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/bixidata/bixitestdata.xlsx
+++ b/src/test/resources/bixidata/bixitestdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipseUpdatedWorkspace\SDET-52\src\test\resources\bixidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00781B2C-1B3B-48E6-AC0E-EF224011FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C2AF2-361C-455E-B77C-E44E39517DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>neyaz</t>
   </si>
@@ -223,7 +223,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,13 +604,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,14 +730,16 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="1" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -761,12 +762,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
       <c r="I2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
       <c r="I3" t="s">
         <v>59</v>
       </c>
@@ -873,8 +904,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,8 +998,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
